--- a/testData/userCase.xlsx
+++ b/testData/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="login_crm" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>case_name</t>
   </si>
@@ -23,6 +23,9 @@
     <t>method</t>
   </si>
   <si>
+    <t>api</t>
+  </si>
+  <si>
     <t>cookie</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>http://account.mofanghr.com/login.action</t>
   </si>
   <si>
     <t>JSESSIONID=9C24F9A635C1E65673A0F8388D13036E</t>
@@ -109,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -142,6 +148,81 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,67 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -233,6 +253,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,36 +267,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,26 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +527,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -547,26 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +568,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -602,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,16 +620,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,112 +641,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,25 +1085,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="44.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1122,188 +1129,219 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="yangsonglin@mofanghr.com"/>
-    <hyperlink ref="D3" r:id="rId1" display="yangsonglin@mofanghr.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="yangsongglin@mofanghr.com" tooltip="mailto:yangsongglin@mofanghr.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="yangsonglin@mofanghr.com"/>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2" tooltip="mailto:yangsongglin@mofanghr.com"/>
-    <hyperlink ref="D8" r:id="rId2" display="yangsongglin@mofanghr.com" tooltip="mailto:yangsongglin@mofanghr.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="yangsonglin@mofanghr.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="yangsonglin@mofanghr.com"/>
+    <hyperlink ref="E4" r:id="rId2" display="yangsongglin@mofanghr.com" tooltip="mailto:yangsongglin@mofanghr.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="yangsonglin@mofanghr.com"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2" tooltip="mailto:yangsongglin@mofanghr.com"/>
+    <hyperlink ref="E8" r:id="rId2" display="yangsongglin@mofanghr.com" tooltip="mailto:yangsongglin@mofanghr.com"/>
+    <hyperlink ref="C2" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C3" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C6" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C7" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
+    <hyperlink ref="C8" r:id="rId3" display="http://account.mofanghr.com/login.action"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1315,7 +1353,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1334,49 +1372,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
